--- a/openscad/blinds-refs.xlsx
+++ b/openscad/blinds-refs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>wall1_thick</t>
   </si>
@@ -79,6 +79,33 @@
   </si>
   <si>
     <t>base_slots_depth</t>
+  </si>
+  <si>
+    <t>servobigcircledia</t>
+  </si>
+  <si>
+    <t>servosmallcircledia</t>
+  </si>
+  <si>
+    <t>servo9gw</t>
+  </si>
+  <si>
+    <t>servomounth</t>
+  </si>
+  <si>
+    <t>servomountsquare</t>
+  </si>
+  <si>
+    <t>servopolygonr</t>
+  </si>
+  <si>
+    <t>servopolygonl</t>
+  </si>
+  <si>
+    <t>distancefrombottom</t>
+  </si>
+  <si>
+    <t>distancefromleft</t>
   </si>
 </sst>
 </file>
@@ -410,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,6 +603,84 @@
       </c>
       <c r="B18">
         <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <f>11.5+B2</f>
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <f>5.8+B2</f>
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <f>6+B2</f>
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <f>5.8+B2</f>
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <f>B4 -10</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <f>B4 - 18</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/openscad/blinds-refs.xlsx
+++ b/openscad/blinds-refs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>wall1_thick</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>distancefromleft</t>
+  </si>
+  <si>
+    <t>wall3slotd</t>
+  </si>
+  <si>
+    <t>wall3sloth</t>
+  </si>
+  <si>
+    <t>adapterh</t>
+  </si>
+  <si>
+    <t>adapterw</t>
+  </si>
+  <si>
+    <t>wall3slotw</t>
   </si>
 </sst>
 </file>
@@ -437,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -681,6 +696,48 @@
       <c r="B27">
         <f>B4 - 18</f>
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <f>B31+2+2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <f>B32+2+2</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/openscad/blinds-refs.xlsx
+++ b/openscad/blinds-refs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>wall1_thick</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>wall3slotw</t>
+  </si>
+  <si>
+    <t>armh</t>
+  </si>
+  <si>
+    <t>armw</t>
+  </si>
+  <si>
+    <t>armthick</t>
+  </si>
+  <si>
+    <t>armslotd</t>
   </si>
 </sst>
 </file>
@@ -452,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,6 +750,40 @@
       </c>
       <c r="B32">
         <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <f>B31+2+2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <f>B32+2+2</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
